--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.77229066666667</v>
+        <v>13.656597</v>
       </c>
       <c r="H2">
-        <v>35.316872</v>
+        <v>40.969791</v>
       </c>
       <c r="I2">
-        <v>0.06057604620598449</v>
+        <v>0.09575367448420215</v>
       </c>
       <c r="J2">
-        <v>0.06057604620598449</v>
+        <v>0.09575367448420216</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.92603533333333</v>
+        <v>15.991592</v>
       </c>
       <c r="N2">
-        <v>32.778106</v>
+        <v>47.97477600000001</v>
       </c>
       <c r="O2">
-        <v>0.6876368010579896</v>
+        <v>0.7512457858594542</v>
       </c>
       <c r="P2">
-        <v>0.6876368010579899</v>
+        <v>0.7512457858594542</v>
       </c>
       <c r="Q2">
-        <v>128.6244637782702</v>
+        <v>218.390727332424</v>
       </c>
       <c r="R2">
-        <v>1157.620174004432</v>
+        <v>1965.516545991816</v>
       </c>
       <c r="S2">
-        <v>0.04165431863382414</v>
+        <v>0.07193454443681481</v>
       </c>
       <c r="T2">
-        <v>0.04165431863382416</v>
+        <v>0.07193454443681482</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.77229066666667</v>
+        <v>13.656597</v>
       </c>
       <c r="H3">
-        <v>35.316872</v>
+        <v>40.969791</v>
       </c>
       <c r="I3">
-        <v>0.06057604620598449</v>
+        <v>0.09575367448420215</v>
       </c>
       <c r="J3">
-        <v>0.06057604620598449</v>
+        <v>0.09575367448420216</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.388815333333334</v>
+        <v>2.388815333333333</v>
       </c>
       <c r="N3">
-        <v>7.166446000000001</v>
+        <v>7.166446</v>
       </c>
       <c r="O3">
-        <v>0.1503415725849085</v>
+        <v>0.1122206877441041</v>
       </c>
       <c r="P3">
-        <v>0.1503415725849086</v>
+        <v>0.1122206877441042</v>
       </c>
       <c r="Q3">
-        <v>28.12182845299023</v>
+        <v>32.62308831475399</v>
       </c>
       <c r="R3">
-        <v>253.096456076912</v>
+        <v>293.607794832786</v>
       </c>
       <c r="S3">
-        <v>0.00910709804758379</v>
+        <v>0.01074554320464224</v>
       </c>
       <c r="T3">
-        <v>0.009107098047583794</v>
+        <v>0.01074554320464224</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.77229066666667</v>
+        <v>13.656597</v>
       </c>
       <c r="H4">
-        <v>35.316872</v>
+        <v>40.969791</v>
       </c>
       <c r="I4">
-        <v>0.06057604620598449</v>
+        <v>0.09575367448420215</v>
       </c>
       <c r="J4">
-        <v>0.06057604620598449</v>
+        <v>0.09575367448420216</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5008316666666666</v>
+        <v>0.914392</v>
       </c>
       <c r="N4">
-        <v>1.502495</v>
+        <v>2.743176</v>
       </c>
       <c r="O4">
-        <v>0.03152015114618349</v>
+        <v>0.04295589436146182</v>
       </c>
       <c r="P4">
-        <v>0.0315201511461835</v>
+        <v>0.04295589436146183</v>
       </c>
       <c r="Q4">
-        <v>5.895935955071111</v>
+        <v>12.487483044024</v>
       </c>
       <c r="R4">
-        <v>53.06342359564</v>
+        <v>112.387347396216</v>
       </c>
       <c r="S4">
-        <v>0.001909366132250826</v>
+        <v>0.00411318472586519</v>
       </c>
       <c r="T4">
-        <v>0.001909366132250827</v>
+        <v>0.004113184725865191</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.77229066666667</v>
+        <v>13.656597</v>
       </c>
       <c r="H5">
-        <v>35.316872</v>
+        <v>40.969791</v>
       </c>
       <c r="I5">
-        <v>0.06057604620598449</v>
+        <v>0.09575367448420215</v>
       </c>
       <c r="J5">
-        <v>0.06057604620598449</v>
+        <v>0.09575367448420216</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.540999</v>
+        <v>1.309904666666666</v>
       </c>
       <c r="N5">
-        <v>4.622997000000001</v>
+        <v>3.929714</v>
       </c>
       <c r="O5">
-        <v>0.09698372652711183</v>
+        <v>0.06153610977011958</v>
       </c>
       <c r="P5">
-        <v>0.09698372652711185</v>
+        <v>0.06153610977011959</v>
       </c>
       <c r="Q5">
-        <v>18.14108814504267</v>
+        <v>17.888840141086</v>
       </c>
       <c r="R5">
-        <v>163.269793305384</v>
+        <v>160.999561269774</v>
       </c>
       <c r="S5">
-        <v>0.00587489069933489</v>
+        <v>0.005892308623952162</v>
       </c>
       <c r="T5">
-        <v>0.005874890699334891</v>
+        <v>0.005892308623952164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.77229066666667</v>
+        <v>13.656597</v>
       </c>
       <c r="H6">
-        <v>35.316872</v>
+        <v>40.969791</v>
       </c>
       <c r="I6">
-        <v>0.06057604620598449</v>
+        <v>0.09575367448420215</v>
       </c>
       <c r="J6">
-        <v>0.06057604620598449</v>
+        <v>0.09575367448420216</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5325719999999999</v>
+        <v>0.6820603333333333</v>
       </c>
       <c r="N6">
-        <v>1.597716</v>
+        <v>2.046181</v>
       </c>
       <c r="O6">
-        <v>0.03351774868380641</v>
+        <v>0.03204152226486026</v>
       </c>
       <c r="P6">
-        <v>0.03351774868380641</v>
+        <v>0.03204152226486026</v>
       </c>
       <c r="Q6">
-        <v>6.269592384928</v>
+        <v>9.314623102018999</v>
       </c>
       <c r="R6">
-        <v>56.426331464352</v>
+        <v>83.83160791817099</v>
       </c>
       <c r="S6">
-        <v>0.002030372692990833</v>
+        <v>0.003068093492927745</v>
       </c>
       <c r="T6">
-        <v>0.002030372692990833</v>
+        <v>0.003068093492927746</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>169.731041</v>
       </c>
       <c r="I7">
-        <v>0.2911253120663078</v>
+        <v>0.3966915733052865</v>
       </c>
       <c r="J7">
-        <v>0.2911253120663078</v>
+        <v>0.3966915733052866</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.92603533333333</v>
+        <v>15.991592</v>
       </c>
       <c r="N7">
-        <v>32.778106</v>
+        <v>47.97477600000001</v>
       </c>
       <c r="O7">
-        <v>0.6876368010579896</v>
+        <v>0.7512457858594542</v>
       </c>
       <c r="P7">
-        <v>0.6876368010579899</v>
+        <v>0.7512457858594542</v>
       </c>
       <c r="Q7">
-        <v>618.1624503764829</v>
+        <v>904.7565191357575</v>
       </c>
       <c r="R7">
-        <v>5563.462053388346</v>
+        <v>8142.808672221817</v>
       </c>
       <c r="S7">
-        <v>0.2001884782962848</v>
+        <v>0.2980128727315533</v>
       </c>
       <c r="T7">
-        <v>0.2001884782962849</v>
+        <v>0.2980128727315533</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>169.731041</v>
       </c>
       <c r="I8">
-        <v>0.2911253120663078</v>
+        <v>0.3966915733052865</v>
       </c>
       <c r="J8">
-        <v>0.2911253120663078</v>
+        <v>0.3966915733052866</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,16 +930,16 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.388815333333334</v>
+        <v>2.388815333333333</v>
       </c>
       <c r="N8">
-        <v>7.166446000000001</v>
+        <v>7.166446</v>
       </c>
       <c r="O8">
-        <v>0.1503415725849085</v>
+        <v>0.1122206877441041</v>
       </c>
       <c r="P8">
-        <v>0.1503415725849086</v>
+        <v>0.1122206877441042</v>
       </c>
       <c r="Q8">
         <v>135.1520377611429</v>
@@ -948,10 +948,10 @@
         <v>1216.368339850286</v>
       </c>
       <c r="S8">
-        <v>0.04376823723532096</v>
+        <v>0.04451700117860996</v>
       </c>
       <c r="T8">
-        <v>0.04376823723532097</v>
+        <v>0.04451700117860997</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>169.731041</v>
       </c>
       <c r="I9">
-        <v>0.2911253120663078</v>
+        <v>0.3966915733052865</v>
       </c>
       <c r="J9">
-        <v>0.2911253120663078</v>
+        <v>0.3966915733052866</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5008316666666666</v>
+        <v>0.914392</v>
       </c>
       <c r="N9">
-        <v>1.502495</v>
+        <v>2.743176</v>
       </c>
       <c r="O9">
-        <v>0.03152015114618349</v>
+        <v>0.04295589436146182</v>
       </c>
       <c r="P9">
-        <v>0.0315201511461835</v>
+        <v>0.04295589436146183</v>
       </c>
       <c r="Q9">
-        <v>28.33556004969944</v>
+        <v>51.73356868069067</v>
       </c>
       <c r="R9">
-        <v>255.0200404472949</v>
+        <v>465.602118126216</v>
       </c>
       <c r="S9">
-        <v>0.009176313838809857</v>
+        <v>0.01704024131698397</v>
       </c>
       <c r="T9">
-        <v>0.00917631383880986</v>
+        <v>0.01704024131698398</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>169.731041</v>
       </c>
       <c r="I10">
-        <v>0.2911253120663078</v>
+        <v>0.3966915733052865</v>
       </c>
       <c r="J10">
-        <v>0.2911253120663078</v>
+        <v>0.3966915733052866</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.540999</v>
+        <v>1.309904666666666</v>
       </c>
       <c r="N10">
-        <v>4.622997000000001</v>
+        <v>3.929714</v>
       </c>
       <c r="O10">
-        <v>0.09698372652711183</v>
+        <v>0.06153610977011958</v>
       </c>
       <c r="P10">
-        <v>0.09698372652711185</v>
+        <v>0.06153610977011959</v>
       </c>
       <c r="Q10">
-        <v>87.18512148331968</v>
+        <v>74.11049422803043</v>
       </c>
       <c r="R10">
-        <v>784.6660933498771</v>
+        <v>666.9944480522739</v>
       </c>
       <c r="S10">
-        <v>0.02823441765055888</v>
+        <v>0.02441085619979555</v>
       </c>
       <c r="T10">
-        <v>0.02823441765055889</v>
+        <v>0.02441085619979556</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>169.731041</v>
       </c>
       <c r="I11">
-        <v>0.2911253120663078</v>
+        <v>0.3966915733052865</v>
       </c>
       <c r="J11">
-        <v>0.2911253120663078</v>
+        <v>0.3966915733052866</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.5325719999999999</v>
+        <v>0.6820603333333333</v>
       </c>
       <c r="N11">
-        <v>1.597716</v>
+        <v>2.046181</v>
       </c>
       <c r="O11">
-        <v>0.03351774868380641</v>
+        <v>0.03204152226486026</v>
       </c>
       <c r="P11">
-        <v>0.03351774868380641</v>
+        <v>0.03204152226486026</v>
       </c>
       <c r="Q11">
-        <v>30.131333322484</v>
+        <v>38.58893680049122</v>
       </c>
       <c r="R11">
-        <v>271.181999902356</v>
+        <v>347.300431204421</v>
       </c>
       <c r="S11">
-        <v>0.009757865045333217</v>
+        <v>0.01271060187834379</v>
       </c>
       <c r="T11">
-        <v>0.009757865045333219</v>
+        <v>0.01271060187834379</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>68.485854</v>
+        <v>27.87648733333333</v>
       </c>
       <c r="H12">
-        <v>205.457562</v>
+        <v>83.629462</v>
       </c>
       <c r="I12">
-        <v>0.3524039945859566</v>
+        <v>0.1954568985142481</v>
       </c>
       <c r="J12">
-        <v>0.3524039945859566</v>
+        <v>0.1954568985142481</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.92603533333333</v>
+        <v>15.991592</v>
       </c>
       <c r="N12">
-        <v>32.778106</v>
+        <v>47.97477600000001</v>
       </c>
       <c r="O12">
-        <v>0.6876368010579896</v>
+        <v>0.7512457858594542</v>
       </c>
       <c r="P12">
-        <v>0.6876368010579899</v>
+        <v>0.7512457858594542</v>
       </c>
       <c r="Q12">
-        <v>748.278860637508</v>
+        <v>445.7894118278347</v>
       </c>
       <c r="R12">
-        <v>6734.509745737572</v>
+        <v>4012.104706450513</v>
       </c>
       <c r="S12">
-        <v>0.2423259555171443</v>
+        <v>0.1468361713259879</v>
       </c>
       <c r="T12">
-        <v>0.2423259555171444</v>
+        <v>0.1468361713259879</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>68.485854</v>
+        <v>27.87648733333333</v>
       </c>
       <c r="H13">
-        <v>205.457562</v>
+        <v>83.629462</v>
       </c>
       <c r="I13">
-        <v>0.3524039945859566</v>
+        <v>0.1954568985142481</v>
       </c>
       <c r="J13">
-        <v>0.3524039945859566</v>
+        <v>0.1954568985142481</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.388815333333334</v>
+        <v>2.388815333333333</v>
       </c>
       <c r="N13">
-        <v>7.166446000000001</v>
+        <v>7.166446</v>
       </c>
       <c r="O13">
-        <v>0.1503415725849085</v>
+        <v>0.1122206877441041</v>
       </c>
       <c r="P13">
-        <v>0.1503415725849086</v>
+        <v>0.1122206877441042</v>
       </c>
       <c r="Q13">
-        <v>163.600058151628</v>
+        <v>66.59178038133911</v>
       </c>
       <c r="R13">
-        <v>1472.400523364652</v>
+        <v>599.326023432052</v>
       </c>
       <c r="S13">
-        <v>0.05298097073125631</v>
+        <v>0.02193430757559848</v>
       </c>
       <c r="T13">
-        <v>0.05298097073125632</v>
+        <v>0.02193430757559849</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>68.485854</v>
+        <v>27.87648733333333</v>
       </c>
       <c r="H14">
-        <v>205.457562</v>
+        <v>83.629462</v>
       </c>
       <c r="I14">
-        <v>0.3524039945859566</v>
+        <v>0.1954568985142481</v>
       </c>
       <c r="J14">
-        <v>0.3524039945859566</v>
+        <v>0.1954568985142481</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.5008316666666666</v>
+        <v>0.914392</v>
       </c>
       <c r="N14">
-        <v>1.502495</v>
+        <v>2.743176</v>
       </c>
       <c r="O14">
-        <v>0.03152015114618349</v>
+        <v>0.04295589436146182</v>
       </c>
       <c r="P14">
-        <v>0.0315201511461835</v>
+        <v>0.04295589436146183</v>
       </c>
       <c r="Q14">
-        <v>34.29988440190999</v>
+        <v>25.49003700570133</v>
       </c>
       <c r="R14">
-        <v>308.6989596171899</v>
+        <v>229.410333051312</v>
       </c>
       <c r="S14">
-        <v>0.01110782717386818</v>
+        <v>0.008396025884797003</v>
       </c>
       <c r="T14">
-        <v>0.01110782717386818</v>
+        <v>0.008396025884797006</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>68.485854</v>
+        <v>27.87648733333333</v>
       </c>
       <c r="H15">
-        <v>205.457562</v>
+        <v>83.629462</v>
       </c>
       <c r="I15">
-        <v>0.3524039945859566</v>
+        <v>0.1954568985142481</v>
       </c>
       <c r="J15">
-        <v>0.3524039945859566</v>
+        <v>0.1954568985142481</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.540999</v>
+        <v>1.309904666666666</v>
       </c>
       <c r="N15">
-        <v>4.622997000000001</v>
+        <v>3.929714</v>
       </c>
       <c r="O15">
-        <v>0.09698372652711183</v>
+        <v>0.06153610977011958</v>
       </c>
       <c r="P15">
-        <v>0.09698372652711185</v>
+        <v>0.06153610977011959</v>
       </c>
       <c r="Q15">
-        <v>105.536632528146</v>
+        <v>36.51554084820755</v>
       </c>
       <c r="R15">
-        <v>949.8296927533141</v>
+        <v>328.639867633868</v>
       </c>
       <c r="S15">
-        <v>0.03417745263798621</v>
+        <v>0.01202765716229989</v>
       </c>
       <c r="T15">
-        <v>0.03417745263798622</v>
+        <v>0.01202765716229989</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>68.485854</v>
+        <v>27.87648733333333</v>
       </c>
       <c r="H16">
-        <v>205.457562</v>
+        <v>83.629462</v>
       </c>
       <c r="I16">
-        <v>0.3524039945859566</v>
+        <v>0.1954568985142481</v>
       </c>
       <c r="J16">
-        <v>0.3524039945859566</v>
+        <v>0.1954568985142481</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5325719999999999</v>
+        <v>0.6820603333333333</v>
       </c>
       <c r="N16">
-        <v>1.597716</v>
+        <v>2.046181</v>
       </c>
       <c r="O16">
-        <v>0.03351774868380641</v>
+        <v>0.03204152226486026</v>
       </c>
       <c r="P16">
-        <v>0.03351774868380641</v>
+        <v>0.03204152226486026</v>
       </c>
       <c r="Q16">
-        <v>36.473648236488</v>
+        <v>19.01344624273577</v>
       </c>
       <c r="R16">
-        <v>328.262834128392</v>
+        <v>171.121016184622</v>
       </c>
       <c r="S16">
-        <v>0.01181178852570157</v>
+        <v>0.006262736565564812</v>
       </c>
       <c r="T16">
-        <v>0.01181178852570157</v>
+        <v>0.006262736565564813</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.83878</v>
+        <v>5.377001</v>
       </c>
       <c r="H17">
-        <v>14.51634</v>
+        <v>16.131003</v>
       </c>
       <c r="I17">
-        <v>0.02489865134663627</v>
+        <v>0.03770101757086552</v>
       </c>
       <c r="J17">
-        <v>0.02489865134663627</v>
+        <v>0.03770101757086553</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.92603533333333</v>
+        <v>15.991592</v>
       </c>
       <c r="N17">
-        <v>32.778106</v>
+        <v>47.97477600000001</v>
       </c>
       <c r="O17">
-        <v>0.6876368010579896</v>
+        <v>0.7512457858594542</v>
       </c>
       <c r="P17">
-        <v>0.6876368010579899</v>
+        <v>0.7512457858594542</v>
       </c>
       <c r="Q17">
-        <v>52.86868125022666</v>
+        <v>85.98680617559201</v>
       </c>
       <c r="R17">
-        <v>475.81813125204</v>
+        <v>773.8812555803281</v>
       </c>
       <c r="S17">
-        <v>0.01712122896265917</v>
+        <v>0.02832273057272596</v>
       </c>
       <c r="T17">
-        <v>0.01712122896265918</v>
+        <v>0.02832273057272597</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.83878</v>
+        <v>5.377001</v>
       </c>
       <c r="H18">
-        <v>14.51634</v>
+        <v>16.131003</v>
       </c>
       <c r="I18">
-        <v>0.02489865134663627</v>
+        <v>0.03770101757086552</v>
       </c>
       <c r="J18">
-        <v>0.02489865134663627</v>
+        <v>0.03770101757086553</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.388815333333334</v>
+        <v>2.388815333333333</v>
       </c>
       <c r="N18">
-        <v>7.166446000000001</v>
+        <v>7.166446</v>
       </c>
       <c r="O18">
-        <v>0.1503415725849085</v>
+        <v>0.1122206877441041</v>
       </c>
       <c r="P18">
-        <v>0.1503415725849086</v>
+        <v>0.1122206877441042</v>
       </c>
       <c r="Q18">
-        <v>11.55895185862667</v>
+        <v>12.84466243614867</v>
       </c>
       <c r="R18">
-        <v>104.03056672764</v>
+        <v>115.601961925338</v>
       </c>
       <c r="S18">
-        <v>0.003743302398696648</v>
+        <v>0.004230834120455084</v>
       </c>
       <c r="T18">
-        <v>0.003743302398696648</v>
+        <v>0.004230834120455085</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.83878</v>
+        <v>5.377001</v>
       </c>
       <c r="H19">
-        <v>14.51634</v>
+        <v>16.131003</v>
       </c>
       <c r="I19">
-        <v>0.02489865134663627</v>
+        <v>0.03770101757086552</v>
       </c>
       <c r="J19">
-        <v>0.02489865134663627</v>
+        <v>0.03770101757086553</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5008316666666666</v>
+        <v>0.914392</v>
       </c>
       <c r="N19">
-        <v>1.502495</v>
+        <v>2.743176</v>
       </c>
       <c r="O19">
-        <v>0.03152015114618349</v>
+        <v>0.04295589436146182</v>
       </c>
       <c r="P19">
-        <v>0.0315201511461835</v>
+        <v>0.04295589436146183</v>
       </c>
       <c r="Q19">
-        <v>2.423414252033333</v>
+        <v>4.916686698392</v>
       </c>
       <c r="R19">
-        <v>21.8107282683</v>
+        <v>44.250180285528</v>
       </c>
       <c r="S19">
-        <v>0.0007848092537821004</v>
+        <v>0.001619480928093715</v>
       </c>
       <c r="T19">
-        <v>0.0007848092537821005</v>
+        <v>0.001619480928093716</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.83878</v>
+        <v>5.377001</v>
       </c>
       <c r="H20">
-        <v>14.51634</v>
+        <v>16.131003</v>
       </c>
       <c r="I20">
-        <v>0.02489865134663627</v>
+        <v>0.03770101757086552</v>
       </c>
       <c r="J20">
-        <v>0.02489865134663627</v>
+        <v>0.03770101757086553</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.540999</v>
+        <v>1.309904666666666</v>
       </c>
       <c r="N20">
-        <v>4.622997000000001</v>
+        <v>3.929714</v>
       </c>
       <c r="O20">
-        <v>0.09698372652711183</v>
+        <v>0.06153610977011958</v>
       </c>
       <c r="P20">
-        <v>0.09698372652711185</v>
+        <v>0.06153610977011959</v>
       </c>
       <c r="Q20">
-        <v>7.456555141220001</v>
+        <v>7.043358702571332</v>
       </c>
       <c r="R20">
-        <v>67.10899627098001</v>
+        <v>63.390228323142</v>
       </c>
       <c r="S20">
-        <v>0.002414763993096077</v>
+        <v>0.002319973955685988</v>
       </c>
       <c r="T20">
-        <v>0.002414763993096077</v>
+        <v>0.002319973955685989</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.83878</v>
+        <v>5.377001</v>
       </c>
       <c r="H21">
-        <v>14.51634</v>
+        <v>16.131003</v>
       </c>
       <c r="I21">
-        <v>0.02489865134663627</v>
+        <v>0.03770101757086552</v>
       </c>
       <c r="J21">
-        <v>0.02489865134663627</v>
+        <v>0.03770101757086553</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.5325719999999999</v>
+        <v>0.6820603333333333</v>
       </c>
       <c r="N21">
-        <v>1.597716</v>
+        <v>2.046181</v>
       </c>
       <c r="O21">
-        <v>0.03351774868380641</v>
+        <v>0.03204152226486026</v>
       </c>
       <c r="P21">
-        <v>0.03351774868380641</v>
+        <v>0.03204152226486026</v>
       </c>
       <c r="Q21">
-        <v>2.57699874216</v>
+        <v>3.667439094393666</v>
       </c>
       <c r="R21">
-        <v>23.19298867944</v>
+        <v>33.00695184954299</v>
       </c>
       <c r="S21">
-        <v>0.0008345467384022724</v>
+        <v>0.001207997993904776</v>
       </c>
       <c r="T21">
-        <v>0.0008345467384022726</v>
+        <v>0.001207997993904776</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>52.66510166666666</v>
+        <v>39.13507266666667</v>
       </c>
       <c r="H22">
-        <v>157.995305</v>
+        <v>117.405218</v>
       </c>
       <c r="I22">
-        <v>0.2709959957951149</v>
+        <v>0.2743968361253977</v>
       </c>
       <c r="J22">
-        <v>0.2709959957951149</v>
+        <v>0.2743968361253977</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.92603533333333</v>
+        <v>15.991592</v>
       </c>
       <c r="N22">
-        <v>32.778106</v>
+        <v>47.97477600000001</v>
       </c>
       <c r="O22">
-        <v>0.6876368010579896</v>
+        <v>0.7512457858594542</v>
       </c>
       <c r="P22">
-        <v>0.6876368010579899</v>
+        <v>0.7512457858594542</v>
       </c>
       <c r="Q22">
-        <v>575.4207616435922</v>
+        <v>625.8321149756854</v>
       </c>
       <c r="R22">
-        <v>5178.78685479233</v>
+        <v>5632.489034781169</v>
       </c>
       <c r="S22">
-        <v>0.1863468196480772</v>
+        <v>0.2061394667923722</v>
       </c>
       <c r="T22">
-        <v>0.1863468196480773</v>
+        <v>0.2061394667923722</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>52.66510166666666</v>
+        <v>39.13507266666667</v>
       </c>
       <c r="H23">
-        <v>157.995305</v>
+        <v>117.405218</v>
       </c>
       <c r="I23">
-        <v>0.2709959957951149</v>
+        <v>0.2743968361253977</v>
       </c>
       <c r="J23">
-        <v>0.2709959957951149</v>
+        <v>0.2743968361253977</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.388815333333334</v>
+        <v>2.388815333333333</v>
       </c>
       <c r="N23">
-        <v>7.166446000000001</v>
+        <v>7.166446</v>
       </c>
       <c r="O23">
-        <v>0.1503415725849085</v>
+        <v>0.1122206877441041</v>
       </c>
       <c r="P23">
-        <v>0.1503415725849086</v>
+        <v>0.1122206877441042</v>
       </c>
       <c r="Q23">
-        <v>125.8072023928922</v>
+        <v>93.48646165724755</v>
       </c>
       <c r="R23">
-        <v>1132.26482153603</v>
+        <v>841.378154915228</v>
       </c>
       <c r="S23">
-        <v>0.04074196417205083</v>
+        <v>0.03079300166479837</v>
       </c>
       <c r="T23">
-        <v>0.04074196417205084</v>
+        <v>0.03079300166479837</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>52.66510166666666</v>
+        <v>39.13507266666667</v>
       </c>
       <c r="H24">
-        <v>157.995305</v>
+        <v>117.405218</v>
       </c>
       <c r="I24">
-        <v>0.2709959957951149</v>
+        <v>0.2743968361253977</v>
       </c>
       <c r="J24">
-        <v>0.2709959957951149</v>
+        <v>0.2743968361253977</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5008316666666666</v>
+        <v>0.914392</v>
       </c>
       <c r="N24">
-        <v>1.502495</v>
+        <v>2.743176</v>
       </c>
       <c r="O24">
-        <v>0.03152015114618349</v>
+        <v>0.04295589436146182</v>
       </c>
       <c r="P24">
-        <v>0.0315201511461835</v>
+        <v>0.04295589436146183</v>
       </c>
       <c r="Q24">
-        <v>26.37635064288611</v>
+        <v>35.78479736581867</v>
       </c>
       <c r="R24">
-        <v>237.387155785975</v>
+        <v>322.063176292368</v>
       </c>
       <c r="S24">
-        <v>0.008541834747472526</v>
+        <v>0.01178696150572193</v>
       </c>
       <c r="T24">
-        <v>0.00854183474747253</v>
+        <v>0.01178696150572194</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>52.66510166666666</v>
+        <v>39.13507266666667</v>
       </c>
       <c r="H25">
-        <v>157.995305</v>
+        <v>117.405218</v>
       </c>
       <c r="I25">
-        <v>0.2709959957951149</v>
+        <v>0.2743968361253977</v>
       </c>
       <c r="J25">
-        <v>0.2709959957951149</v>
+        <v>0.2743968361253977</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.540999</v>
+        <v>1.309904666666666</v>
       </c>
       <c r="N25">
-        <v>4.622997000000001</v>
+        <v>3.929714</v>
       </c>
       <c r="O25">
-        <v>0.09698372652711183</v>
+        <v>0.06153610977011958</v>
       </c>
       <c r="P25">
-        <v>0.09698372652711185</v>
+        <v>0.06153610977011959</v>
       </c>
       <c r="Q25">
-        <v>81.15686900323168</v>
+        <v>51.26321431640577</v>
       </c>
       <c r="R25">
-        <v>730.4118210290851</v>
+        <v>461.368928847652</v>
       </c>
       <c r="S25">
-        <v>0.02628220154613577</v>
+        <v>0.01688531382838599</v>
       </c>
       <c r="T25">
-        <v>0.02628220154613578</v>
+        <v>0.01688531382838599</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>52.66510166666666</v>
+        <v>39.13507266666667</v>
       </c>
       <c r="H26">
-        <v>157.995305</v>
+        <v>117.405218</v>
       </c>
       <c r="I26">
-        <v>0.2709959957951149</v>
+        <v>0.2743968361253977</v>
       </c>
       <c r="J26">
-        <v>0.2709959957951149</v>
+        <v>0.2743968361253977</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.5325719999999999</v>
+        <v>0.6820603333333333</v>
       </c>
       <c r="N26">
-        <v>1.597716</v>
+        <v>2.046181</v>
       </c>
       <c r="O26">
-        <v>0.03351774868380641</v>
+        <v>0.03204152226486026</v>
       </c>
       <c r="P26">
-        <v>0.03351774868380641</v>
+        <v>0.03204152226486026</v>
       </c>
       <c r="Q26">
-        <v>28.04795852482</v>
+        <v>26.69248070805089</v>
       </c>
       <c r="R26">
-        <v>252.43162672338</v>
+        <v>240.232326372458</v>
       </c>
       <c r="S26">
-        <v>0.009083175681378517</v>
+        <v>0.008792092334119142</v>
       </c>
       <c r="T26">
-        <v>0.009083175681378522</v>
+        <v>0.008792092334119142</v>
       </c>
     </row>
   </sheetData>
